--- a/final_output/life_2019.xlsx
+++ b/final_output/life_2019.xlsx
@@ -592,16 +592,16 @@
         <v>582265.5</v>
       </c>
       <c r="F2">
-        <v>52250889</v>
+        <v>52351816</v>
       </c>
       <c r="G2">
         <v>135984</v>
       </c>
       <c r="H2">
-        <v>52114905</v>
+        <v>52215832</v>
       </c>
       <c r="I2">
-        <v>136040</v>
+        <v>35113</v>
       </c>
       <c r="J2">
         <v>189191863</v>
@@ -627,16 +627,16 @@
         <v>3309193.5</v>
       </c>
       <c r="F3">
-        <v>210360553</v>
+        <v>212016418</v>
       </c>
       <c r="G3">
         <v>1459496</v>
       </c>
       <c r="H3">
-        <v>208901057</v>
+        <v>210556922</v>
       </c>
       <c r="I3">
-        <v>1906928</v>
+        <v>251063</v>
       </c>
       <c r="J3">
         <v>147635710</v>
@@ -662,16 +662,16 @@
         <v>1467879.5</v>
       </c>
       <c r="F4">
-        <v>27560030</v>
+        <v>28726039</v>
       </c>
       <c r="G4">
         <v>297056</v>
       </c>
       <c r="H4">
-        <v>27262974</v>
+        <v>28428983</v>
       </c>
       <c r="I4">
-        <v>1197577</v>
+        <v>31568</v>
       </c>
       <c r="J4">
         <v>191663333</v>
@@ -697,16 +697,16 @@
         <v>15559270</v>
       </c>
       <c r="F5">
-        <v>597412938</v>
+        <v>605737806</v>
       </c>
       <c r="G5">
         <v>2051751</v>
       </c>
       <c r="H5">
-        <v>595361187</v>
+        <v>603686055</v>
       </c>
       <c r="I5">
-        <v>8806523</v>
+        <v>481655</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>3139965</v>
       </c>
       <c r="F6">
-        <v>261851291</v>
+        <v>262959227</v>
       </c>
       <c r="G6">
         <v>1335913</v>
       </c>
       <c r="H6">
-        <v>260515378</v>
+        <v>261623314</v>
       </c>
       <c r="I6">
-        <v>1325539</v>
+        <v>217603</v>
       </c>
       <c r="J6">
         <v>149080241</v>
@@ -767,16 +767,16 @@
         <v>11643414.5</v>
       </c>
       <c r="F7">
-        <v>386736299</v>
+        <v>389509262</v>
       </c>
       <c r="G7">
         <v>3205816</v>
       </c>
       <c r="H7">
-        <v>383530483</v>
+        <v>386303446</v>
       </c>
       <c r="I7">
-        <v>4062369</v>
+        <v>1289406</v>
       </c>
       <c r="J7">
         <v>57558512</v>
@@ -802,16 +802,16 @@
         <v>9070402.5</v>
       </c>
       <c r="F8">
-        <v>313325473</v>
+        <v>313837223</v>
       </c>
       <c r="G8">
         <v>1387377</v>
       </c>
       <c r="H8">
-        <v>311938096</v>
+        <v>312449846</v>
       </c>
       <c r="I8">
-        <v>828036</v>
+        <v>316286</v>
       </c>
       <c r="J8">
         <v>93079239</v>
@@ -837,16 +837,16 @@
         <v>10397646</v>
       </c>
       <c r="F9">
-        <v>555643815</v>
+        <v>558513837</v>
       </c>
       <c r="G9">
         <v>1782387</v>
       </c>
       <c r="H9">
-        <v>553861428</v>
+        <v>556731450</v>
       </c>
       <c r="I9">
-        <v>3323857</v>
+        <v>453835</v>
       </c>
       <c r="J9">
         <v>83651842</v>
@@ -872,16 +872,16 @@
         <v>2694877.5</v>
       </c>
       <c r="F10">
-        <v>122577499</v>
+        <v>124029492</v>
       </c>
       <c r="G10">
         <v>1807764</v>
       </c>
       <c r="H10">
-        <v>120769735</v>
+        <v>122221728</v>
       </c>
       <c r="I10">
-        <v>1480444</v>
+        <v>28451</v>
       </c>
       <c r="J10">
         <v>166764044</v>
@@ -907,16 +907,16 @@
         <v>1259565.5</v>
       </c>
       <c r="F11">
-        <v>82548123</v>
+        <v>82552645</v>
       </c>
       <c r="G11">
         <v>624620</v>
       </c>
       <c r="H11">
-        <v>81923503</v>
+        <v>81928025</v>
       </c>
       <c r="I11">
-        <v>96234</v>
+        <v>91712</v>
       </c>
       <c r="J11">
         <v>188993459</v>
@@ -942,16 +942,16 @@
         <v>394695</v>
       </c>
       <c r="F12">
-        <v>23726723</v>
+        <v>23730098</v>
       </c>
       <c r="G12">
         <v>292738</v>
       </c>
       <c r="H12">
-        <v>23433985</v>
+        <v>23437360</v>
       </c>
       <c r="I12">
-        <v>15783</v>
+        <v>12408</v>
       </c>
       <c r="J12">
         <v>190660846</v>
@@ -977,16 +977,16 @@
         <v>1304214</v>
       </c>
       <c r="F13">
-        <v>18694563</v>
+        <v>25323186</v>
       </c>
       <c r="G13">
         <v>1519744</v>
       </c>
       <c r="H13">
-        <v>17174819</v>
+        <v>23803442</v>
       </c>
       <c r="I13">
-        <v>6751471</v>
+        <v>122848</v>
       </c>
       <c r="J13">
         <v>202015216</v>
@@ -1012,16 +1012,16 @@
         <v>1567826.5</v>
       </c>
       <c r="F14">
-        <v>127794006</v>
+        <v>127799441</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>127794006</v>
+        <v>127799441</v>
       </c>
       <c r="I14">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>181045987</v>
@@ -1047,16 +1047,16 @@
         <v>341908.5</v>
       </c>
       <c r="F15">
-        <v>13192929</v>
+        <v>13464695</v>
       </c>
       <c r="G15">
         <v>58940</v>
       </c>
       <c r="H15">
-        <v>13133989</v>
+        <v>13405755</v>
       </c>
       <c r="I15">
-        <v>271918</v>
+        <v>152</v>
       </c>
       <c r="J15">
         <v>200856075</v>
@@ -1082,16 +1082,16 @@
         <v>427339.5</v>
       </c>
       <c r="F16">
-        <v>3819775</v>
+        <v>4858194</v>
       </c>
       <c r="G16">
         <v>192442</v>
       </c>
       <c r="H16">
-        <v>3627333</v>
+        <v>4665752</v>
       </c>
       <c r="I16">
-        <v>1073925</v>
+        <v>35506</v>
       </c>
       <c r="J16">
         <v>201439099</v>
@@ -1117,16 +1117,16 @@
         <v>953094</v>
       </c>
       <c r="F17">
-        <v>15425033</v>
+        <v>15267213</v>
       </c>
       <c r="G17">
         <v>495009</v>
       </c>
       <c r="H17">
-        <v>14930024</v>
+        <v>14772204</v>
       </c>
       <c r="I17">
-        <v>590025</v>
+        <v>747845</v>
       </c>
       <c r="J17">
         <v>197922668</v>
@@ -1152,16 +1152,16 @@
         <v>1431723.5</v>
       </c>
       <c r="F18">
-        <v>9601417</v>
+        <v>9847997</v>
       </c>
       <c r="G18">
         <v>867450</v>
       </c>
       <c r="H18">
-        <v>8733967</v>
+        <v>8980547</v>
       </c>
       <c r="I18">
-        <v>304574</v>
+        <v>57994</v>
       </c>
       <c r="J18">
         <v>202181559</v>
@@ -1187,16 +1187,16 @@
         <v>821251.5</v>
       </c>
       <c r="F19">
-        <v>50540319</v>
+        <v>50562338</v>
       </c>
       <c r="G19">
         <v>883544</v>
       </c>
       <c r="H19">
-        <v>49656775</v>
+        <v>49678794</v>
       </c>
       <c r="I19">
-        <v>133737</v>
+        <v>111718</v>
       </c>
       <c r="J19">
         <v>194300900</v>
@@ -1222,16 +1222,16 @@
         <v>2257341</v>
       </c>
       <c r="F20">
-        <v>96165187</v>
+        <v>96355736</v>
       </c>
       <c r="G20">
         <v>648753</v>
       </c>
       <c r="H20">
-        <v>95516434</v>
+        <v>95706983</v>
       </c>
       <c r="I20">
-        <v>324304</v>
+        <v>133755</v>
       </c>
       <c r="J20">
         <v>163373833</v>
@@ -1257,16 +1257,16 @@
         <v>911892.5</v>
       </c>
       <c r="F21">
-        <v>9831180</v>
+        <v>9834471</v>
       </c>
       <c r="G21">
         <v>605055</v>
       </c>
       <c r="H21">
-        <v>9226125</v>
+        <v>9229416</v>
       </c>
       <c r="I21">
-        <v>58854</v>
+        <v>55563</v>
       </c>
       <c r="J21">
         <v>200461704</v>
@@ -1292,16 +1292,16 @@
         <v>892581</v>
       </c>
       <c r="F22">
-        <v>5142306</v>
+        <v>11295285</v>
       </c>
       <c r="G22">
         <v>524582</v>
       </c>
       <c r="H22">
-        <v>4617724</v>
+        <v>10770703</v>
       </c>
       <c r="I22">
-        <v>6219161</v>
+        <v>66182</v>
       </c>
       <c r="J22">
         <v>202615233</v>
@@ -1327,16 +1327,16 @@
         <v>524868.5</v>
       </c>
       <c r="F23">
-        <v>2983795</v>
+        <v>5279784</v>
       </c>
       <c r="G23">
         <v>1398552</v>
       </c>
       <c r="H23">
-        <v>1585243</v>
+        <v>3881232</v>
       </c>
       <c r="I23">
-        <v>3598624</v>
+        <v>1302635</v>
       </c>
       <c r="J23">
         <v>201539838</v>
@@ -1362,16 +1362,16 @@
         <v>3225146.136363636</v>
       </c>
       <c r="F24">
-        <v>135781097.4090909</v>
+        <v>137447827.4090909</v>
       </c>
       <c r="G24">
         <v>980680.5909090909</v>
       </c>
       <c r="H24">
-        <v>134800416.8181818</v>
+        <v>136467146.8181818</v>
       </c>
       <c r="I24">
-        <v>1932334.454545455</v>
+        <v>265604.4545454545</v>
       </c>
       <c r="J24">
         <v>163910509.1363636</v>
@@ -1397,16 +1397,16 @@
         <v>4099882.358468483</v>
       </c>
       <c r="F25">
-        <v>171390772.8406916</v>
+        <v>172383952.1384082</v>
       </c>
       <c r="G25">
         <v>761642.1314577132</v>
       </c>
       <c r="H25">
-        <v>170864227.6476731</v>
+        <v>171855458.160038</v>
       </c>
       <c r="I25">
-        <v>2392903.153852054</v>
+        <v>366192.420183555</v>
       </c>
       <c r="J25">
         <v>53241579.6633374</v>
@@ -1465,34 +1465,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.22687961344088</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>0.02429895817040708</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.4209835988816071</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5427620555473802</v>
+        <v>0.5389274405074511</v>
       </c>
       <c r="H2">
-        <v>0.4179306501127882</v>
+        <v>0.4209835988816071</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4572379444526197</v>
+        <v>0.4610725594925488</v>
       </c>
       <c r="K2">
-        <v>0.3159251568159102</v>
+        <v>0.3120478270665711</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1500,34 +1500,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2772194564907606</v>
+        <v>0.288156329060566</v>
       </c>
       <c r="C3">
-        <v>0.6829916501381195</v>
+        <v>0.7659881605163636</v>
       </c>
       <c r="D3">
-        <v>0.08270514041016666</v>
+        <v>0.05715635033950127</v>
       </c>
       <c r="E3">
-        <v>0.6865364057546534</v>
+        <v>0.7660969424573935</v>
       </c>
       <c r="F3">
-        <v>0.8304273496158172</v>
+        <v>0.8667514044845765</v>
       </c>
       <c r="G3">
-        <v>0.4862487431138794</v>
+        <v>0.4339601790881294</v>
       </c>
       <c r="H3">
-        <v>0.6865364057546534</v>
+        <v>0.7660969424573935</v>
       </c>
       <c r="I3">
-        <v>0.1695726503841828</v>
+        <v>0.1332485955154235</v>
       </c>
       <c r="J3">
-        <v>0.426633094617736</v>
+        <v>0.490615809769562</v>
       </c>
       <c r="K3">
-        <v>0.1265747985073206</v>
+        <v>0.08797926565444858</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1535,34 +1535,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1024466776396321</v>
+        <v>0.1024497517151984</v>
       </c>
       <c r="C4">
-        <v>0.1507496279756851</v>
+        <v>0.156563801101073</v>
       </c>
       <c r="D4">
-        <v>-0.0002161797337389088</v>
+        <v>-0.0005328234280089108</v>
       </c>
       <c r="E4">
-        <v>0.9027490321184098</v>
+        <v>0.8661112186699862</v>
       </c>
       <c r="F4">
-        <v>0.5734463712436678</v>
+        <v>0.5768735841106769</v>
       </c>
       <c r="G4">
-        <v>0.1978964658468464</v>
+        <v>0.2050484986606025</v>
       </c>
       <c r="H4">
-        <v>0.9027490321184098</v>
+        <v>0.8661112186699862</v>
       </c>
       <c r="I4">
-        <v>0.4265536287563321</v>
+        <v>0.423126415889323</v>
       </c>
       <c r="J4">
-        <v>0.4599633610218474</v>
+        <v>0.4585865217718219</v>
       </c>
       <c r="K4">
-        <v>0.01103633258218843</v>
+        <v>0.01583731062365668</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1570,34 +1570,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1635073764795213</v>
+        <v>0.2341407462912538</v>
       </c>
       <c r="C5">
-        <v>0.4191267237389544</v>
+        <v>0.4328288725502495</v>
       </c>
       <c r="D5">
-        <v>0.02308370458708987</v>
+        <v>0.01248350567952571</v>
       </c>
       <c r="E5">
-        <v>0.6749766866597037</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7039625346029968</v>
+        <v>0.7008910085755656</v>
       </c>
       <c r="G5">
-        <v>0.3441113767261065</v>
+        <v>0.3340615636760736</v>
       </c>
       <c r="H5">
-        <v>0.6749766866597037</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.2960374653970032</v>
+        <v>0.2991089914244345</v>
       </c>
       <c r="J5">
-        <v>0.4617210176571601</v>
+        <v>0.4667502622843118</v>
       </c>
       <c r="K5">
-        <v>0.07873414046631536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1605,34 +1605,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2886500811449846</v>
+        <v>0.2980318312514475</v>
       </c>
       <c r="C6">
-        <v>0.8864984897924035</v>
+        <v>0.9269446036025407</v>
       </c>
       <c r="D6">
-        <v>0.0605882390657452</v>
+        <v>0.05252911402704444</v>
       </c>
       <c r="E6">
-        <v>0.5716613012550844</v>
+        <v>0.6281893305976562</v>
       </c>
       <c r="F6">
-        <v>0.9389339075451419</v>
+        <v>0.9579868034714965</v>
       </c>
       <c r="G6">
-        <v>0.5377716052844406</v>
+        <v>0.4952364124070945</v>
       </c>
       <c r="H6">
-        <v>0.5716613012550844</v>
+        <v>0.6281893305976562</v>
       </c>
       <c r="I6">
-        <v>0.06106609245485806</v>
+        <v>0.04201319652850362</v>
       </c>
       <c r="J6">
-        <v>0.4340019128285985</v>
+        <v>0.4835568557869322</v>
       </c>
       <c r="K6">
-        <v>0.2162819135715588</v>
+        <v>0.1763981164331168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1640,34 +1640,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.179546741968282</v>
+        <v>0.1796211207233644</v>
       </c>
       <c r="C7">
-        <v>0.3144928792935622</v>
+        <v>0.393988880633758</v>
       </c>
       <c r="D7">
-        <v>0.009665159140852728</v>
+        <v>0.04894884334364467</v>
       </c>
       <c r="E7">
-        <v>0.8743265199837851</v>
+        <v>0.8062307897465507</v>
       </c>
       <c r="F7">
-        <v>0.6541420441725302</v>
+        <v>0.6855863331280918</v>
       </c>
       <c r="G7">
-        <v>0.313929272457941</v>
+        <v>0.3249644629356555</v>
       </c>
       <c r="H7">
-        <v>0.8743265199837851</v>
+        <v>0.8062307897465507</v>
       </c>
       <c r="I7">
-        <v>0.3458579558274698</v>
+        <v>0.3144136668719083</v>
       </c>
       <c r="J7">
-        <v>0.4487877081612975</v>
+        <v>0.462795138587096</v>
       </c>
       <c r="K7">
-        <v>0.02580759404295074</v>
+        <v>0.04317007381763133</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1675,34 +1675,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1842041715877921</v>
+        <v>0.1990379864354474</v>
       </c>
       <c r="C8">
-        <v>0.455423803620318</v>
+        <v>0.4534973470438712</v>
       </c>
       <c r="D8">
-        <v>0.01572529439086132</v>
+        <v>0.02960591202615946</v>
       </c>
       <c r="E8">
-        <v>0.8647315941127883</v>
+        <v>0.9029455996591812</v>
       </c>
       <c r="F8">
-        <v>0.7121058879956519</v>
+        <v>0.7113064204143349</v>
       </c>
       <c r="G8">
-        <v>0.2991393583298538</v>
+        <v>0.3098972018287102</v>
       </c>
       <c r="H8">
-        <v>0.8647315941127883</v>
+        <v>0.9029455996591812</v>
       </c>
       <c r="I8">
-        <v>0.2878941120043481</v>
+        <v>0.2886935795856651</v>
       </c>
       <c r="J8">
-        <v>0.4990869895977219</v>
+        <v>0.4908745510851364</v>
       </c>
       <c r="K8">
-        <v>0.0288147268101379</v>
+        <v>0.02139388289375109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1710,34 +1710,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1946715118708842</v>
+        <v>0.2075386649405982</v>
       </c>
       <c r="C9">
-        <v>0.5969858399201433</v>
+        <v>0.6133638846998455</v>
       </c>
       <c r="D9">
-        <v>0.04573344018902618</v>
+        <v>0.03675929498912155</v>
       </c>
       <c r="E9">
-        <v>0.5792923761432628</v>
+        <v>0.6474273913478932</v>
       </c>
       <c r="F9">
-        <v>0.7881873080134103</v>
+        <v>0.786293102486472</v>
       </c>
       <c r="G9">
-        <v>0.4263587217972788</v>
+        <v>0.4076838269834062</v>
       </c>
       <c r="H9">
-        <v>0.5792923761432628</v>
+        <v>0.6474273913478932</v>
       </c>
       <c r="I9">
-        <v>0.2118126919865896</v>
+        <v>0.2137068975135281</v>
       </c>
       <c r="J9">
-        <v>0.4521367748319747</v>
+        <v>0.4657341213341315</v>
       </c>
       <c r="K9">
-        <v>0.1413790213105515</v>
+        <v>0.1130203162117422</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1745,34 +1745,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2025967889809434</v>
+        <v>0.2103820301128854</v>
       </c>
       <c r="C10">
-        <v>0.491390692459187</v>
+        <v>0.6904964260281616</v>
       </c>
       <c r="D10">
-        <v>0.07884364931139941</v>
+        <v>0.007297704971633778</v>
       </c>
       <c r="E10">
-        <v>0.6795497727529148</v>
+        <v>0.8262096708829059</v>
       </c>
       <c r="F10">
-        <v>0.7296271837816004</v>
+        <v>0.8256715339308078</v>
       </c>
       <c r="G10">
-        <v>0.4086112128244854</v>
+        <v>0.3083976467249737</v>
       </c>
       <c r="H10">
-        <v>0.6795497727529148</v>
+        <v>0.8262096708829059</v>
       </c>
       <c r="I10">
-        <v>0.2703728162183996</v>
+        <v>0.1743284660691922</v>
       </c>
       <c r="J10">
-        <v>0.4314933353068869</v>
+        <v>0.5710363758987475</v>
       </c>
       <c r="K10">
-        <v>0.09553705949376996</v>
+        <v>0.04425312791917504</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1780,34 +1780,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1574099728303398</v>
+        <v>0.166990956090084</v>
       </c>
       <c r="C11">
-        <v>0.8619626924562159</v>
+        <v>0.9081206650961915</v>
       </c>
       <c r="D11">
-        <v>0.01096540017160358</v>
+        <v>-0.001489692675645014</v>
       </c>
       <c r="E11">
-        <v>0.4271037136161696</v>
+        <v>0.4119146816862524</v>
       </c>
       <c r="F11">
-        <v>0.9419961036425593</v>
+        <v>0.9726677348241306</v>
       </c>
       <c r="G11">
-        <v>0.3912458914263912</v>
+        <v>0.4167937230888473</v>
       </c>
       <c r="H11">
-        <v>0.4271037136161696</v>
+        <v>0.4119146816862524</v>
       </c>
       <c r="I11">
-        <v>0.0580038963574408</v>
+        <v>0.02733226517586934</v>
       </c>
       <c r="J11">
-        <v>0.573443998352739</v>
+        <v>0.5672659282983855</v>
       </c>
       <c r="K11">
-        <v>0.2111421324594805</v>
+        <v>0.2384108504356611</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1815,31 +1815,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.3617415779057516</v>
       </c>
       <c r="C12">
-        <v>0.6248055426452882</v>
+        <v>0.4291625581939189</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>-0.001014823882950381</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F12">
-        <v>0.7967215081028188</v>
+        <v>0.712592579034195</v>
       </c>
       <c r="G12">
-        <v>0.428183880521092</v>
+        <v>0.507641517114919</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I12">
-        <v>0.2032784918971812</v>
+        <v>0.287407420965805</v>
       </c>
       <c r="J12">
-        <v>0.4555782010687373</v>
+        <v>0.3508510011284434</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1850,34 +1850,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.04698104744614357</v>
+        <v>0.03870611977377544</v>
       </c>
       <c r="C13">
-        <v>0.1418477522810175</v>
+        <v>0.5859827774675503</v>
       </c>
       <c r="D13">
-        <v>0.7429478599096254</v>
+        <v>0.05529741939695465</v>
       </c>
       <c r="E13">
-        <v>0.1116675951923084</v>
+        <v>0.2853956600589773</v>
       </c>
       <c r="F13">
-        <v>0.5399847165301952</v>
+        <v>0.7633870782620468</v>
       </c>
       <c r="G13">
-        <v>0.7791374214394199</v>
+        <v>0.1776591038557956</v>
       </c>
       <c r="H13">
-        <v>0.1116675951923084</v>
+        <v>0.2853956600589773</v>
       </c>
       <c r="I13">
-        <v>0.4600152834698049</v>
+        <v>0.2366129217379532</v>
       </c>
       <c r="J13">
-        <v>0.1192624168761627</v>
+        <v>0.6277644140429174</v>
       </c>
       <c r="K13">
-        <v>0.3737412522078888</v>
+        <v>0.09691654444535384</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1885,34 +1885,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.339450295768566</v>
+        <v>0.3697611933429005</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.339450295768566</v>
+        <v>0.3697669906477681</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.9999843217350001</v>
       </c>
       <c r="H14">
-        <v>0.339450295768566</v>
+        <v>0.3697669906477681</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.5678265E-05</v>
       </c>
       <c r="K14">
-        <v>0.660549704231434</v>
+        <v>0.6302231283920996</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1920,34 +1920,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1714259270880475</v>
+        <v>0.1309050898181539</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974611</v>
+        <v>0.4694910597114706</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488597</v>
+        <v>0.0003742441723918126</v>
       </c>
       <c r="E15">
-        <v>0.6099426583518859</v>
+        <v>0.5882429314050962</v>
       </c>
       <c r="F15">
-        <v>0.7015213717982797</v>
+        <v>0.7074478997244515</v>
       </c>
       <c r="G15">
-        <v>0.4006328830112482</v>
+        <v>0.3145613458026102</v>
       </c>
       <c r="H15">
-        <v>0.6099426583518859</v>
+        <v>0.5882429314050962</v>
       </c>
       <c r="I15">
-        <v>0.2984786282017203</v>
+        <v>0.2925521002755483</v>
       </c>
       <c r="J15">
-        <v>0.4204688421207292</v>
+        <v>0.4849121363018981</v>
       </c>
       <c r="K15">
-        <v>0.109626602589503</v>
+        <v>0.09163067360439967</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1955,34 +1955,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1342228376798882</v>
+        <v>0.09125258497396715</v>
       </c>
       <c r="C16">
-        <v>0.09112574841126249</v>
+        <v>0.2615410972567351</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.06236753726957552</v>
       </c>
       <c r="E16">
-        <v>0.6214936847997322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F16">
-        <v>0.5120755931193843</v>
+        <v>0.5768960210667791</v>
       </c>
       <c r="G16">
-        <v>0.4217505130259069</v>
+        <v>0.158178565359535</v>
       </c>
       <c r="H16">
-        <v>0.6214936847997322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.4879244068806156</v>
+        <v>0.423103978933221</v>
       </c>
       <c r="J16">
-        <v>0.2961074490132385</v>
+        <v>0.4856434360928119</v>
       </c>
       <c r="K16">
-        <v>0.08174530642625771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1990,34 +1990,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>0.07815534531065185</v>
       </c>
       <c r="C17">
-        <v>0.1815335340507955</v>
+        <v>0.3967272582964528</v>
       </c>
       <c r="D17">
-        <v>0.08880187442577661</v>
+        <v>0.5735534950957318</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374324</v>
+        <v>0.1813898518410056</v>
       </c>
       <c r="F17">
-        <v>0.5804848110452239</v>
+        <v>0.6822659796787325</v>
       </c>
       <c r="G17">
-        <v>0.2379047603046414</v>
+        <v>0.6315270886959716</v>
       </c>
       <c r="H17">
-        <v>0.6127585569374324</v>
+        <v>0.1813898518410056</v>
       </c>
       <c r="I17">
-        <v>0.4195151889547761</v>
+        <v>0.3177340203212676</v>
       </c>
       <c r="J17">
-        <v>0.4423847112130248</v>
+        <v>0.2513965318159175</v>
       </c>
       <c r="K17">
-        <v>0.05347808194610541</v>
+        <v>0.352714102552163</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2025,34 +2025,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04345971027892451</v>
+        <v>0.04610389006460952</v>
       </c>
       <c r="C18">
-        <v>0.353369636712293</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.03032026941478206</v>
+        <v>0.04573720343310191</v>
       </c>
       <c r="E18">
-        <v>0.770812961730917</v>
+        <v>0.5722615681953077</v>
       </c>
       <c r="F18">
-        <v>0.666081115206084</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.08464682972507832</v>
+        <v>0.0805643653653056</v>
       </c>
       <c r="H18">
-        <v>0.770812961730917</v>
+        <v>0.5722615681953077</v>
       </c>
       <c r="I18">
-        <v>0.333918884793916</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6096994604641444</v>
+        <v>0.9194356346346944</v>
       </c>
       <c r="K18">
-        <v>0.01292194446301515</v>
+        <v>0.03446047530069608</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2060,34 +2060,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.133082866660589</v>
+        <v>0.1281513379678761</v>
       </c>
       <c r="C19">
-        <v>0.6203001885926759</v>
+        <v>0.618400508722442</v>
       </c>
       <c r="D19">
-        <v>0.0233715430407432</v>
+        <v>0.05481347148663838</v>
       </c>
       <c r="E19">
-        <v>0.3796418908690378</v>
+        <v>0.3518303998296101</v>
       </c>
       <c r="F19">
-        <v>0.7918808596930587</v>
+        <v>0.7904833298816355</v>
       </c>
       <c r="G19">
-        <v>0.4426782388499084</v>
+        <v>0.4607836570033131</v>
       </c>
       <c r="H19">
-        <v>0.3796418908690378</v>
+        <v>0.3518303998296101</v>
       </c>
       <c r="I19">
-        <v>0.2081191403069414</v>
+        <v>0.2095166701183645</v>
       </c>
       <c r="J19">
-        <v>0.441332435345184</v>
+        <v>0.4262415303386192</v>
       </c>
       <c r="K19">
-        <v>0.2174655576872856</v>
+        <v>0.2360904615751402</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2095,34 +2095,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2453718782202678</v>
+        <v>0.2570998520522956</v>
       </c>
       <c r="C20">
-        <v>0.4714104655895706</v>
+        <v>0.5370536388668622</v>
       </c>
       <c r="D20">
-        <v>0.02061945614135863</v>
+        <v>0.04749347496202964</v>
       </c>
       <c r="E20">
-        <v>0.949367245224541</v>
+        <v>0.9809453108745556</v>
       </c>
       <c r="F20">
-        <v>0.7211069020109351</v>
+        <v>0.7427086947950066</v>
       </c>
       <c r="G20">
-        <v>0.3584188905048967</v>
+        <v>0.3528893266389063</v>
       </c>
       <c r="H20">
-        <v>0.949367245224541</v>
+        <v>0.9809453108745556</v>
       </c>
       <c r="I20">
-        <v>0.2788930979890649</v>
+        <v>0.2572913052049934</v>
       </c>
       <c r="J20">
-        <v>0.4626485662567525</v>
+        <v>0.4806147235999358</v>
       </c>
       <c r="K20">
-        <v>0.01308645753391477</v>
+        <v>0.004994119142775255</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2130,34 +2130,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06506995864935353</v>
+        <v>0.05461023095943099</v>
       </c>
       <c r="C21">
-        <v>0.1168931122066258</v>
+        <v>0.3788592848558135</v>
       </c>
       <c r="D21">
-        <v>0.009262912373442012</v>
+        <v>0.04222882573452706</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.6447095206520548</v>
       </c>
       <c r="F21">
-        <v>0.5420534309322346</v>
+        <v>0.6656806692811296</v>
       </c>
       <c r="G21">
-        <v>0.12004344025172</v>
+        <v>0.1272459545529183</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.6447095206520548</v>
       </c>
       <c r="I21">
-        <v>0.4579465690677654</v>
+        <v>0.3343193307188704</v>
       </c>
       <c r="J21">
-        <v>0.476983472282881</v>
+        <v>0.5809754970910267</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.03009494123067189</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2165,34 +2165,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06313181328414963</v>
+        <v>0.04240205553714704</v>
       </c>
       <c r="C22">
-        <v>0.05780813650340148</v>
+        <v>0.3263379333938957</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.04782960564925619</v>
       </c>
       <c r="E22">
-        <v>0.1193693478279196</v>
+        <v>0.4686089091662957</v>
       </c>
       <c r="F22">
-        <v>0.5288779274823481</v>
+        <v>0.6618151312783354</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.1367224011827052</v>
       </c>
       <c r="H22">
-        <v>0.1193693478279196</v>
+        <v>0.4686089091662957</v>
       </c>
       <c r="I22">
-        <v>0.471122072517652</v>
+        <v>0.3381848687216646</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5713301773909142</v>
       </c>
       <c r="K22">
-        <v>0.4657461141981984</v>
+        <v>0.04808289835027421</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2200,34 +2200,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1090594948946657</v>
+        <v>0.07396636070858353</v>
       </c>
       <c r="C23">
-        <v>0.03230226993235325</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.9839919703171001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E23">
-        <v>0.231054329855447</v>
+        <v>0.07396636070858355</v>
       </c>
       <c r="F23">
-        <v>0.4794043715468884</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.984571772797881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H23">
-        <v>0.231054329855447</v>
+        <v>0.07396636070858355</v>
       </c>
       <c r="I23">
-        <v>0.5205956284531116</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.007396359565914445</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3629485170863082</v>
+        <v>0.9260336392914164</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2235,34 +2235,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1706414014825173</v>
+        <v>0.1720947576580395</v>
       </c>
       <c r="C24">
-        <v>0.4537669081507879</v>
+        <v>0.6066067617289634</v>
       </c>
       <c r="D24">
-        <v>0.2154772316709566</v>
+        <v>0.09980625548912002</v>
       </c>
       <c r="E24">
-        <v>0.6102007554121521</v>
+        <v>0.6269648512413037</v>
       </c>
       <c r="F24">
-        <v>0.7151373317309467</v>
+        <v>0.7903320594740211</v>
       </c>
       <c r="G24">
-        <v>0.4639110606266544</v>
+        <v>0.3964876637821784</v>
       </c>
       <c r="H24">
-        <v>0.6102007554121521</v>
+        <v>0.6269648512413037</v>
       </c>
       <c r="I24">
-        <v>0.2848626682690533</v>
+        <v>0.2096679405259789</v>
       </c>
       <c r="J24">
-        <v>0.3807440023197886</v>
+        <v>0.4589758584095842</v>
       </c>
       <c r="K24">
-        <v>0.1637519279286407</v>
+        <v>0.1592614434063974</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2270,34 +2270,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08506599135152502</v>
+        <v>0.09774244574659464</v>
       </c>
       <c r="C25">
-        <v>0.2916358510540773</v>
+        <v>0.2550072680993719</v>
       </c>
       <c r="D25">
-        <v>0.3408869577929612</v>
+        <v>0.2225972056957937</v>
       </c>
       <c r="E25">
-        <v>0.2564316473078111</v>
+        <v>0.2677733235135488</v>
       </c>
       <c r="F25">
-        <v>0.1520940329061723</v>
+        <v>0.1351775133044703</v>
       </c>
       <c r="G25">
-        <v>0.2496711640273692</v>
+        <v>0.2327656170663288</v>
       </c>
       <c r="H25">
-        <v>0.2564316473078111</v>
+        <v>0.2677733235135488</v>
       </c>
       <c r="I25">
-        <v>0.1520940329061723</v>
+        <v>0.1351775133044703</v>
       </c>
       <c r="J25">
-        <v>0.1713074289137802</v>
+        <v>0.1834523570929194</v>
       </c>
       <c r="K25">
-        <v>0.1678569817663827</v>
+        <v>0.2196287717645215</v>
       </c>
     </row>
   </sheetData>
@@ -2350,34 +2350,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.2307971839600592</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>-0.0007007671379592557</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.4216766207839941</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5427620555473802</v>
+        <v>0.5473321796474131</v>
       </c>
       <c r="H2">
-        <v>0.4179306501127882</v>
+        <v>0.4216766207839941</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4572379444526197</v>
+        <v>0.4526678203525868</v>
       </c>
       <c r="K2">
-        <v>0.3159251568159102</v>
+        <v>0.3165349956873539</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2385,34 +2385,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2925978636662717</v>
+        <v>0.299835001879973</v>
       </c>
       <c r="C3">
-        <v>0.7624547788586593</v>
+        <v>0.8200387880595285</v>
       </c>
       <c r="D3">
-        <v>0.07818496587787566</v>
+        <v>0.05553447539520429</v>
       </c>
       <c r="E3">
-        <v>0.6902270680721218</v>
+        <v>0.7683318140377373</v>
       </c>
       <c r="F3">
-        <v>0.8783907968576491</v>
+        <v>0.9002918523908103</v>
       </c>
       <c r="G3">
-        <v>0.4826045224521006</v>
+        <v>0.4334611648231493</v>
       </c>
       <c r="H3">
-        <v>0.6902270680721218</v>
+        <v>0.7683318140377373</v>
       </c>
       <c r="I3">
-        <v>0.1216092031423509</v>
+        <v>0.09970814760918963</v>
       </c>
       <c r="J3">
-        <v>0.4442456442330519</v>
+        <v>0.5030092398852759</v>
       </c>
       <c r="K3">
-        <v>0.131317507377534</v>
+        <v>0.09040655313813839</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2420,34 +2420,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1150063422704461</v>
+        <v>0.1149286451078586</v>
       </c>
       <c r="C4">
-        <v>0.2114164609021162</v>
+        <v>0.2868577866294975</v>
       </c>
       <c r="D4">
-        <v>0.116746196266856</v>
+        <v>0.01786994471220328</v>
       </c>
       <c r="E4">
-        <v>0.6899862296234017</v>
+        <v>0.9505106589958482</v>
       </c>
       <c r="F4">
-        <v>0.5895386878078182</v>
+        <v>0.612927635679156</v>
       </c>
       <c r="G4">
-        <v>0.2827281537883533</v>
+        <v>0.1972704758570818</v>
       </c>
       <c r="H4">
-        <v>0.6899862296234017</v>
+        <v>0.9505106589958482</v>
       </c>
       <c r="I4">
-        <v>0.4104613121921818</v>
+        <v>0.387072364320844</v>
       </c>
       <c r="J4">
-        <v>0.4228595030171053</v>
+        <v>0.4920151093227729</v>
       </c>
       <c r="K4">
-        <v>0.05167284252026664</v>
+        <v>0.005983881248524545</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2455,28 +2455,28 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.5406521744816578</v>
+      </c>
+      <c r="C5">
+        <v>0.7171807829439009</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="D5">
-        <v>1.000000000000001</v>
-      </c>
       <c r="E5">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="F5">
+        <v>0.7171754826546881</v>
+      </c>
+      <c r="G5">
+        <v>0.7538631584007671</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.9999999999999991</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2828245173453119</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2490,34 +2490,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3162186850917625</v>
+        <v>0.3185072230801724</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D6">
-        <v>0.05735966118742666</v>
+        <v>0.05108131459190923</v>
       </c>
       <c r="E6">
-        <v>0.5892366366822526</v>
+        <v>0.6422226632124597</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>0.5366582208334142</v>
+        <v>0.4959451625188196</v>
       </c>
       <c r="H6">
-        <v>0.5892366366822526</v>
+        <v>0.6422226632124597</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4525853879548236</v>
+        <v>0.4967107169449393</v>
       </c>
       <c r="K6">
-        <v>0.220439535741652</v>
+        <v>0.1774379394386472</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2525,28 +2525,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4677348510714621</v>
+        <v>0.6970957836532179</v>
       </c>
       <c r="C7">
-        <v>0.8526548864231527</v>
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.9999999999999971</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.8526548864231527</v>
-      </c>
       <c r="G7">
-        <v>0.5485629162738841</v>
+        <v>0.6970957836532199</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.9999999999999971</v>
       </c>
       <c r="I7">
-        <v>0.1473451135768473</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2560,34 +2560,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1935646823115225</v>
+        <v>0.2389872732579826</v>
       </c>
       <c r="C8">
-        <v>0.5258894051712526</v>
+        <v>0.8691033462389339</v>
       </c>
       <c r="D8">
-        <v>0.01307194533459269</v>
+        <v>-0.2484591039050581</v>
       </c>
       <c r="E8">
-        <v>0.8255819277892105</v>
+        <v>0.8231371214243157</v>
       </c>
       <c r="F8">
-        <v>0.7437877683666259</v>
+        <v>0.9082001081928948</v>
       </c>
       <c r="G8">
-        <v>0.3152222825401346</v>
+        <v>0.3196841004866361</v>
       </c>
       <c r="H8">
-        <v>0.8255819277892105</v>
+        <v>0.8231371214243157</v>
       </c>
       <c r="I8">
-        <v>0.2562122316333741</v>
+        <v>0.09179989180710529</v>
       </c>
       <c r="J8">
-        <v>0.4917542033211073</v>
+        <v>0.4696640565104248</v>
       </c>
       <c r="K8">
-        <v>0.04089379575843818</v>
+        <v>0.05134986139152864</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2595,34 +2595,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2096504366835875</v>
+        <v>0.2440851403284787</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.9895590542231523</v>
       </c>
       <c r="D9">
-        <v>-0.4504133346846882</v>
+        <v>-0.6548520892974771</v>
       </c>
       <c r="E9">
-        <v>0.3780816354678854</v>
+        <v>0.4492000418355759</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.9916102060699497</v>
       </c>
       <c r="G9">
-        <v>0.5545110288790935</v>
+        <v>0.5479747720772651</v>
       </c>
       <c r="H9">
-        <v>0.3780816354678854</v>
+        <v>0.4492000418355759</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00838979393005046</v>
       </c>
       <c r="J9">
-        <v>0.3235668400896107</v>
+        <v>0.3043205005402821</v>
       </c>
       <c r="K9">
-        <v>0.3448605921955061</v>
+        <v>0.2992922363321918</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2630,34 +2630,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2044321393156127</v>
+        <v>0.2116272841904296</v>
       </c>
       <c r="C10">
-        <v>0.5399667314922216</v>
+        <v>0.7290670273386616</v>
       </c>
       <c r="D10">
-        <v>0.07456629810837172</v>
+        <v>0.007098759971883947</v>
       </c>
       <c r="E10">
-        <v>0.6690554423510102</v>
+        <v>0.8126186701208998</v>
       </c>
       <c r="F10">
-        <v>0.7650359150035621</v>
+        <v>0.8512299566771961</v>
       </c>
       <c r="G10">
-        <v>0.3993974077835715</v>
+        <v>0.305941198410531</v>
       </c>
       <c r="H10">
-        <v>0.6690554423510102</v>
+        <v>0.8126186701208998</v>
       </c>
       <c r="I10">
-        <v>0.234964084996438</v>
+        <v>0.1487700433228039</v>
       </c>
       <c r="J10">
-        <v>0.4468902784227242</v>
+        <v>0.5820615412860038</v>
       </c>
       <c r="K10">
-        <v>0.1011212219981427</v>
+        <v>0.04879902887833623</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2665,34 +2665,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.182469300987421</v>
+        <v>0.1736734309736385</v>
       </c>
       <c r="C11">
-        <v>0.8619626924562157</v>
+        <v>0.8359847638854949</v>
       </c>
       <c r="D11">
-        <v>0.01096540017160359</v>
+        <v>0.04825069123851491</v>
       </c>
       <c r="E11">
-        <v>0.4950977036040307</v>
+        <v>0.4804818338214483</v>
       </c>
       <c r="F11">
-        <v>0.941996103642559</v>
+        <v>0.9177144027208617</v>
       </c>
       <c r="G11">
-        <v>0.3912458914263914</v>
+        <v>0.3938663368998005</v>
       </c>
       <c r="H11">
-        <v>0.4950977036040307</v>
+        <v>0.4804818338214483</v>
       </c>
       <c r="I11">
-        <v>0.05800389635744091</v>
+        <v>0.08228559727913834</v>
       </c>
       <c r="J11">
-        <v>0.5734439983527387</v>
+        <v>0.5562575926010076</v>
       </c>
       <c r="K11">
-        <v>0.1860828043023992</v>
+        <v>0.1877833791462157</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2700,31 +2700,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.3617415779057516</v>
       </c>
       <c r="C12">
-        <v>0.6248055426452882</v>
+        <v>0.4291625581939189</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>-0.001014823882950381</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F12">
-        <v>0.7967215081028188</v>
+        <v>0.712592579034195</v>
       </c>
       <c r="G12">
-        <v>0.428183880521092</v>
+        <v>0.507641517114919</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I12">
-        <v>0.2032784918971812</v>
+        <v>0.287407420965805</v>
       </c>
       <c r="J12">
-        <v>0.4555782010687373</v>
+        <v>0.3508510011284434</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2735,31 +2735,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7782691380261895</v>
+        <v>0.1356226642191309</v>
       </c>
       <c r="C13">
-        <v>0.5565593926011178</v>
+        <v>0.5859827774675506</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.05529741939695465</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999122</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="F13">
-        <v>0.778269138026258</v>
+        <v>0.7633870782620469</v>
       </c>
       <c r="G13">
-        <v>0.9999999999999999</v>
+        <v>0.1776591038557956</v>
       </c>
       <c r="H13">
-        <v>0.9999999999999122</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="I13">
-        <v>0.221730861973742</v>
+        <v>0.2366129217379531</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6277644140429175</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2770,34 +2770,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.339450295768566</v>
+        <v>0.3697611933429005</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.000000000000012</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.339450295768566</v>
+        <v>0.3697669906477681</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.9999843217350001</v>
       </c>
       <c r="H14">
-        <v>0.339450295768566</v>
+        <v>0.3697669906477681</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.5678265E-05</v>
       </c>
       <c r="K14">
-        <v>0.660549704231434</v>
+        <v>0.6302231283920996</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2805,34 +2805,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1803692800995877</v>
+        <v>0.1194479897363352</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974612</v>
+        <v>0.4694910597114706</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488596</v>
+        <v>0.0003742441723918126</v>
       </c>
       <c r="E15">
-        <v>0.6417635888441356</v>
+        <v>0.5367586220715723</v>
       </c>
       <c r="F15">
-        <v>0.7015213717982799</v>
+        <v>0.7074478997244515</v>
       </c>
       <c r="G15">
-        <v>0.4006328830112481</v>
+        <v>0.3145613458026102</v>
       </c>
       <c r="H15">
-        <v>0.6417635888441356</v>
+        <v>0.5367586220715723</v>
       </c>
       <c r="I15">
-        <v>0.2984786282017201</v>
+        <v>0.2925521002755483</v>
       </c>
       <c r="J15">
-        <v>0.4204688421207293</v>
+        <v>0.4849121363018981</v>
       </c>
       <c r="K15">
-        <v>0.1006832495779626</v>
+        <v>0.1030877736862183</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2840,34 +2840,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1602147890343559</v>
+        <v>0.09125258497395805</v>
       </c>
       <c r="C16">
-        <v>0.09112574841126249</v>
+        <v>0.2615410972567351</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.06236753726957552</v>
       </c>
       <c r="E16">
-        <v>0.7418445423859</v>
+        <v>0.9999999999999001</v>
       </c>
       <c r="F16">
-        <v>0.5120755931193843</v>
+        <v>0.5768960210667791</v>
       </c>
       <c r="G16">
-        <v>0.4217505130259069</v>
+        <v>0.158178565359535</v>
       </c>
       <c r="H16">
-        <v>0.7418445423859</v>
+        <v>0.9999999999999001</v>
       </c>
       <c r="I16">
-        <v>0.4879244068806156</v>
+        <v>0.4231039789332209</v>
       </c>
       <c r="J16">
-        <v>0.2961074490132384</v>
+        <v>0.4856434360928119</v>
       </c>
       <c r="K16">
-        <v>0.05575335507179011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2875,34 +2875,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>0.07815534531065185</v>
       </c>
       <c r="C17">
-        <v>0.1815335340507956</v>
+        <v>0.3967272582964528</v>
       </c>
       <c r="D17">
-        <v>0.0888018744257766</v>
+        <v>0.5735534950957318</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374323</v>
+        <v>0.1813898518410056</v>
       </c>
       <c r="F17">
-        <v>0.580484811045224</v>
+        <v>0.6822659796787325</v>
       </c>
       <c r="G17">
-        <v>0.2379047603046414</v>
+        <v>0.6315270886959716</v>
       </c>
       <c r="H17">
-        <v>0.6127585569374323</v>
+        <v>0.1813898518410056</v>
       </c>
       <c r="I17">
-        <v>0.419515188954776</v>
+        <v>0.3177340203212676</v>
       </c>
       <c r="J17">
-        <v>0.4423847112130249</v>
+        <v>0.2513965318159175</v>
       </c>
       <c r="K17">
-        <v>0.05347808194610543</v>
+        <v>0.352714102552163</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2910,34 +2910,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.06426716573686519</v>
+        <v>0.07631503055198685</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.02980428997378987</v>
+        <v>0.04573720343310191</v>
       </c>
       <c r="E18">
-        <v>0.9999999999999698</v>
+        <v>0.9472554051155141</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06426716573686714</v>
+        <v>0.0805643653653056</v>
       </c>
       <c r="H18">
-        <v>0.9999999999999698</v>
+        <v>0.9472554051155141</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9357328342631329</v>
+        <v>0.9194356346346944</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.004249334813319905</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2945,34 +2945,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1461021170170547</v>
+        <v>0.1356538012663445</v>
       </c>
       <c r="C19">
-        <v>0.4607614867717931</v>
+        <v>0.3181586021174171</v>
       </c>
       <c r="D19">
-        <v>0.01195397735733329</v>
+        <v>-0.003209983853258195</v>
       </c>
       <c r="E19">
-        <v>0.4050447366898744</v>
+        <v>0.3697204220875394</v>
       </c>
       <c r="F19">
-        <v>0.7303696656257782</v>
+        <v>0.6590652937590458</v>
       </c>
       <c r="G19">
-        <v>0.4938678876930103</v>
+        <v>0.5567113625863588</v>
       </c>
       <c r="H19">
-        <v>0.4050447366898744</v>
+        <v>0.3697204220875394</v>
       </c>
       <c r="I19">
-        <v>0.2696303343742218</v>
+        <v>0.3409347062409542</v>
       </c>
       <c r="J19">
-        <v>0.3696635416281249</v>
+        <v>0.2921561560370685</v>
       </c>
       <c r="K19">
-        <v>0.2146040069805986</v>
+        <v>0.2312553364556327</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2980,34 +2980,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2465346759199781</v>
+        <v>0.2578575972522343</v>
       </c>
       <c r="C20">
-        <v>0.5001779111880539</v>
+        <v>0.5578555274958992</v>
       </c>
       <c r="D20">
-        <v>0.01974621991297754</v>
+        <v>0.04650901661998562</v>
       </c>
       <c r="E20">
-        <v>0.9426781250092674</v>
+        <v>0.9763188608249977</v>
       </c>
       <c r="F20">
-        <v>0.7454159501843751</v>
+        <v>0.7598586935220013</v>
       </c>
       <c r="G20">
-        <v>0.3508454931747884</v>
+        <v>0.3475805096899948</v>
       </c>
       <c r="H20">
-        <v>0.9426781250092674</v>
+        <v>0.9763188608249977</v>
       </c>
       <c r="I20">
-        <v>0.2545840498156248</v>
+        <v>0.2401413064779986</v>
       </c>
       <c r="J20">
-        <v>0.4688139314563146</v>
+        <v>0.4851717732758385</v>
       </c>
       <c r="K20">
-        <v>0.01499115074281249</v>
+        <v>0.006254474734516458</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3015,34 +3015,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06507844633730261</v>
+        <v>0.05461023095943099</v>
       </c>
       <c r="C21">
-        <v>0.1122785851118414</v>
+        <v>0.3788592848558134</v>
       </c>
       <c r="D21">
-        <v>0.009268333001181423</v>
+        <v>0.04222882573452706</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.6447095206520548</v>
       </c>
       <c r="F21">
-        <v>0.5399509307519549</v>
+        <v>0.6656806692811297</v>
       </c>
       <c r="G21">
-        <v>0.1205265934937311</v>
+        <v>0.1272459545529183</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.6447095206520548</v>
       </c>
       <c r="I21">
-        <v>0.4600490692480451</v>
+        <v>0.3343193307188705</v>
       </c>
       <c r="J21">
-        <v>0.4748724844146523</v>
+        <v>0.5809754970910267</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.03009494123067189</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3050,31 +3050,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.6329380379087297</v>
+        <v>0.09048495388742062</v>
       </c>
       <c r="C22">
-        <v>0.2659168095578585</v>
+        <v>0.3263379333938957</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.04782960564925619</v>
       </c>
       <c r="E22">
-        <v>0.9999999999999668</v>
+        <v>0.9999999999999929</v>
       </c>
       <c r="F22">
-        <v>0.6329380379087508</v>
+        <v>0.6618151312783354</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.1367224011827052</v>
       </c>
       <c r="H22">
-        <v>0.9999999999999668</v>
+        <v>0.9999999999999929</v>
       </c>
       <c r="I22">
-        <v>0.3670619620912492</v>
+        <v>0.3381848687216646</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5713301773909142</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3085,34 +3085,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1245926883813318</v>
+        <v>0.08121993983456832</v>
       </c>
       <c r="C23">
-        <v>0.01477237399520406</v>
+        <v>1</v>
       </c>
       <c r="D23">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.08121993983456834</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>0.2647492635672536</v>
-      </c>
-      <c r="F23">
-        <v>0.4706063643107425</v>
-      </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H23">
-        <v>0.2647492635672536</v>
+        <v>0.08121993983456834</v>
       </c>
       <c r="I23">
-        <v>0.5293936356892575</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3460136759294108</v>
+        <v>0.9187800601654317</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3120,34 +3120,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2896405981490769</v>
+        <v>0.2237414568251901</v>
       </c>
       <c r="C24">
-        <v>0.590642251483377</v>
+        <v>0.6805412567321967</v>
       </c>
       <c r="D24">
-        <v>0.2988247813881055</v>
+        <v>0.14297708023657</v>
       </c>
       <c r="E24">
-        <v>0.7137948364956809</v>
+        <v>0.702514501695782</v>
       </c>
       <c r="F24">
-        <v>0.7845344331352243</v>
+        <v>0.8221890449996487</v>
       </c>
       <c r="G24">
-        <v>0.5259850752948003</v>
+        <v>0.4423095849416271</v>
       </c>
       <c r="H24">
-        <v>0.7137948364956809</v>
+        <v>0.702514501695782</v>
       </c>
       <c r="I24">
-        <v>0.2154655668647757</v>
+        <v>0.1778109550003512</v>
       </c>
       <c r="J24">
-        <v>0.3398275361373516</v>
+        <v>0.4048345006145375</v>
       </c>
       <c r="K24">
-        <v>0.1290175764177256</v>
+        <v>0.1570112285132268</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3155,34 +3155,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.2273908487159041</v>
+        <v>0.1545747014832412</v>
       </c>
       <c r="C25">
-        <v>0.3272538860439559</v>
+        <v>0.2703707890213859</v>
       </c>
       <c r="D25">
-        <v>0.4384212953158061</v>
+        <v>0.384112168642361</v>
       </c>
       <c r="E25">
-        <v>0.2430127693203535</v>
+        <v>0.2846964999270438</v>
       </c>
       <c r="F25">
-        <v>0.1701184190043133</v>
+        <v>0.145330113510145</v>
       </c>
       <c r="G25">
-        <v>0.2792259651890066</v>
+        <v>0.2517682328991325</v>
       </c>
       <c r="H25">
-        <v>0.2430127693203535</v>
+        <v>0.2846964999270438</v>
       </c>
       <c r="I25">
-        <v>0.1701184190043133</v>
+        <v>0.145330113510145</v>
       </c>
       <c r="J25">
-        <v>0.2331054354769622</v>
+        <v>0.2268855749601511</v>
       </c>
       <c r="K25">
-        <v>0.1596197634539481</v>
+        <v>0.2244028821652698</v>
       </c>
     </row>
   </sheetData>
@@ -3226,25 +3226,25 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3.458467162087676E-08</v>
+        <v>3.528794167259969E-08</v>
       </c>
       <c r="C2">
-        <v>8.125172897651019E-07</v>
+        <v>8.115778758277761E-07</v>
       </c>
       <c r="D2">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="E2">
-        <v>1.011031017280523E-08</v>
+        <v>1.010124367073576E-08</v>
       </c>
       <c r="F2">
-        <v>1.166142411871673E-07</v>
+        <v>3.270184263733978E-07</v>
       </c>
       <c r="G2">
-        <v>3.549368164016662E-10</v>
+        <v>1.894871425898431E-10</v>
       </c>
       <c r="H2">
-        <v>1.61775312006684E-08</v>
+        <v>1.935299170939044E-08</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3252,25 +3252,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.983037035808987E-09</v>
+        <v>1.189390132757226E-08</v>
       </c>
       <c r="C3">
-        <v>1.405431847155228E-07</v>
+        <v>1.301194286535202E-07</v>
       </c>
       <c r="D3">
-        <v>9.999999999999999E-12</v>
+        <v>6.150560232166107E-08</v>
       </c>
       <c r="E3">
-        <v>1.748809539656422E-09</v>
+        <v>1.645131649457617E-09</v>
       </c>
       <c r="F3">
-        <v>2.017175985258559E-08</v>
+        <v>1.184632475531472E-07</v>
       </c>
       <c r="G3">
-        <v>-1.278980644231714E-11</v>
+        <v>-3.06164481882288E-11</v>
       </c>
       <c r="H3">
-        <v>4.135651755140698E-09</v>
+        <v>4.336705001218263E-09</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3278,25 +3278,25 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.511665416101902E-09</v>
+        <v>1.111559428483855E-09</v>
       </c>
       <c r="C4">
-        <v>3.390804498690421E-07</v>
+        <v>3.394898990166339E-07</v>
       </c>
       <c r="D4">
-        <v>-1.274685360924516E-07</v>
+        <v>-1.346142039567769E-07</v>
       </c>
       <c r="E4">
-        <v>4.166178770063844E-09</v>
+        <v>4.169381572941751E-09</v>
       </c>
       <c r="F4">
-        <v>-8.301200322152955E-11</v>
+        <v>-7.73617330268737E-09</v>
       </c>
       <c r="G4">
-        <v>2.608178631491729E-11</v>
+        <v>2.507523691967704E-11</v>
       </c>
       <c r="H4">
-        <v>8.761014390054491E-09</v>
+        <v>8.778635060185234E-09</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3304,25 +3304,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4.656357884266198E-10</v>
+        <v>1.321749269705421E-09</v>
       </c>
       <c r="C5">
-        <v>3.151548362178206E-08</v>
+        <v>3.037610898248036E-08</v>
       </c>
       <c r="D5">
-        <v>-8.639851832507992E-09</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="E5">
-        <v>3.88556468643818E-10</v>
+        <v>3.780779893246472E-10</v>
       </c>
       <c r="F5">
-        <v>1.238863119703977E-09</v>
+        <v>1.225013014195918E-08</v>
       </c>
       <c r="G5">
-        <v>9.999999999999999E-12</v>
+        <v>-2.814888520138117E-10</v>
       </c>
       <c r="H5">
-        <v>6.825266991961661E-10</v>
+        <v>9.773706492900138E-10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3330,25 +3330,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.263353046534918E-09</v>
+        <v>1.23696543938863E-08</v>
       </c>
       <c r="C6">
-        <v>1.471290006372799E-07</v>
+        <v>1.353241731241538E-07</v>
       </c>
       <c r="D6">
-        <v>9.999999999999999E-12</v>
+        <v>6.396581096928024E-08</v>
       </c>
       <c r="E6">
-        <v>1.830758090330872E-09</v>
+        <v>1.710936502311521E-09</v>
       </c>
       <c r="F6">
-        <v>2.111696358042893E-08</v>
+        <v>1.232017477068586E-07</v>
       </c>
       <c r="G6">
-        <v>-1.338908812321938E-11</v>
+        <v>-3.184109842737515E-11</v>
       </c>
       <c r="H6">
-        <v>4.329445980227767E-09</v>
+        <v>4.510172112236424E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3356,25 +3356,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.736393103845793E-10</v>
+        <v>1.968863777699461E-09</v>
       </c>
       <c r="C7">
-        <v>4.255378767419865E-08</v>
+        <v>4.13259431781751E-08</v>
       </c>
       <c r="D7">
-        <v>-1.319593603077572E-08</v>
+        <v>1.696685665395467E-09</v>
       </c>
       <c r="E7">
-        <v>5.240115388671249E-10</v>
+        <v>5.150665548245103E-10</v>
       </c>
       <c r="F7">
-        <v>1.078173206803959E-09</v>
+        <v>1.847300965943964E-08</v>
       </c>
       <c r="G7">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H7">
-        <v>9.824254993319856E-10</v>
+        <v>9.828337862698829E-10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3382,25 +3382,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4.821436911662894E-09</v>
+        <v>4.754025945707629E-09</v>
       </c>
       <c r="C8">
-        <v>5.196492965321745E-08</v>
+        <v>5.200910305397258E-08</v>
       </c>
       <c r="D8">
-        <v>2.574486966066224E-08</v>
+        <v>2.458396292272212E-08</v>
       </c>
       <c r="E8">
-        <v>6.573266386853357E-10</v>
+        <v>6.575637656834912E-10</v>
       </c>
       <c r="F8">
-        <v>9.629627548012989E-09</v>
+        <v>4.735009455433247E-08</v>
       </c>
       <c r="G8">
-        <v>-7.212820873792072E-12</v>
+        <v>-1.223748079318919E-11</v>
       </c>
       <c r="H8">
-        <v>1.600892887061207E-09</v>
+        <v>1.733393234638501E-09</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3408,25 +3408,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.906674235988619E-09</v>
+        <v>3.931996428925853E-09</v>
       </c>
       <c r="C9">
-        <v>4.562846825240947E-08</v>
+        <v>4.301608990260102E-08</v>
       </c>
       <c r="D9">
-        <v>-3.49603441837177E-10</v>
+        <v>2.033309357688009E-08</v>
       </c>
       <c r="E9">
-        <v>5.676181086806136E-10</v>
+        <v>5.438629086139063E-10</v>
       </c>
       <c r="F9">
-        <v>6.519160405797191E-09</v>
+        <v>3.916268123547743E-08</v>
       </c>
       <c r="G9">
-        <v>-4.118264918390651E-12</v>
+        <v>-1.012146995565175E-11</v>
       </c>
       <c r="H9">
-        <v>1.341688705021509E-09</v>
+        <v>1.433668239584739E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3434,25 +3434,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7.399165965711691E-09</v>
+        <v>1.481406383494816E-08</v>
       </c>
       <c r="C10">
-        <v>1.738140793378535E-07</v>
+        <v>1.620660428527103E-07</v>
       </c>
       <c r="D10">
-        <v>9.999999999999999E-12</v>
+        <v>7.660631225246628E-08</v>
       </c>
       <c r="E10">
-        <v>2.162805561764327E-09</v>
+        <v>2.049040478876519E-09</v>
       </c>
       <c r="F10">
-        <v>2.494683616800733E-08</v>
+        <v>1.475480637525853E-07</v>
       </c>
       <c r="G10">
-        <v>-1.581731858223614E-11</v>
+        <v>-3.813332609447355E-11</v>
       </c>
       <c r="H10">
-        <v>5.114681129464268E-09</v>
+        <v>5.401442550431824E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3460,25 +3460,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-2.418223473525986E-08</v>
+        <v>-6.137420497036509E-08</v>
       </c>
       <c r="C11">
-        <v>4.603139022420305E-07</v>
+        <v>5.577478846137811E-07</v>
       </c>
       <c r="D11">
-        <v>9.999999999999999E-12</v>
+        <v>-2.178890521638046E-07</v>
       </c>
       <c r="E11">
-        <v>4.42112865959998E-09</v>
+        <v>4.95856700352763E-09</v>
       </c>
       <c r="F11">
-        <v>6.606561383393899E-08</v>
+        <v>-9.200485252111731E-09</v>
       </c>
       <c r="G11">
-        <v>-5.003710886483183E-11</v>
+        <v>2.982150715167593E-11</v>
       </c>
       <c r="H11">
-        <v>1.079689773450604E-08</v>
+        <v>1.044026539282003E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3486,25 +3486,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.941347503067187E-08</v>
+        <v>4.118865424249875E-09</v>
       </c>
       <c r="C12">
-        <v>1.160908982925726E-06</v>
+        <v>1.257974311682938E-06</v>
       </c>
       <c r="D12">
-        <v>9.999999999999999E-12</v>
+        <v>-4.988107482896743E-07</v>
       </c>
       <c r="E12">
-        <v>1.444541377435162E-08</v>
+        <v>1.544957575927154E-08</v>
       </c>
       <c r="F12">
-        <v>1.66615809867091E-07</v>
+        <v>-2.866626463319671E-08</v>
       </c>
       <c r="G12">
-        <v>-1.056388228666049E-10</v>
+        <v>9.291588349369984E-11</v>
       </c>
       <c r="H12">
-        <v>3.416093662777586E-08</v>
+        <v>3.252908975890074E-08</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3512,25 +3512,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.514212016643908E-08</v>
+        <v>3.003164091095091E-08</v>
       </c>
       <c r="C13">
-        <v>3.55729022135915E-07</v>
+        <v>3.285465255880212E-07</v>
       </c>
       <c r="D13">
-        <v>9.999999999999999E-12</v>
+        <v>1.552992674198434E-07</v>
       </c>
       <c r="E13">
-        <v>4.42640753385668E-09</v>
+        <v>4.153893797085682E-09</v>
       </c>
       <c r="F13">
-        <v>5.105547390188117E-08</v>
+        <v>2.991151190580271E-07</v>
       </c>
       <c r="G13">
-        <v>1.553954806421924E-10</v>
+        <v>1.088655029149596E-10</v>
       </c>
       <c r="H13">
-        <v>7.082703129482295E-09</v>
+        <v>7.59376750649203E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3538,25 +3538,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.901523086223232E-06</v>
+        <v>1.905337290468251E-06</v>
       </c>
       <c r="C14">
-        <v>6.483964497641286E-10</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="D14">
-        <v>2.216365434931923E-06</v>
+        <v>2.217613503059282E-06</v>
       </c>
       <c r="E14">
-        <v>7.817138362996101E-09</v>
+        <v>7.824637681592051E-09</v>
       </c>
       <c r="F14">
-        <v>1.870419754270689E-07</v>
+        <v>1.467881945424348E-06</v>
       </c>
       <c r="G14">
-        <v>-1.709749923749835E-10</v>
+        <v>-2.000640259936849E-10</v>
       </c>
       <c r="H14">
-        <v>2.068248626370713E-08</v>
+        <v>2.266903825810754E-08</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3564,25 +3564,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5.908877692810894E-08</v>
+        <v>1.19916176245669E-07</v>
       </c>
       <c r="C15">
-        <v>1.388222995846129E-06</v>
+        <v>1.31188446159627E-06</v>
       </c>
       <c r="D15">
-        <v>9.999999999999999E-12</v>
+        <v>6.201091168465082E-07</v>
       </c>
       <c r="E15">
-        <v>1.727392494565235E-08</v>
+        <v>1.658647498330605E-08</v>
       </c>
       <c r="F15">
-        <v>1.992401733409593E-07</v>
+        <v>1.194365017917728E-06</v>
       </c>
       <c r="G15">
-        <v>8.534276025161174E-10</v>
+        <v>1.359909645872826E-09</v>
       </c>
       <c r="H15">
-        <v>9.999999999999999E-12</v>
+        <v>-1.450173817806933E-07</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3590,25 +3590,25 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4.613190352010187E-08</v>
+        <v>9.134450605112749E-08</v>
       </c>
       <c r="C16">
-        <v>1.083810904058489E-06</v>
+        <v>9.993100338286405E-07</v>
       </c>
       <c r="D16">
-        <v>9.999999999999999E-12</v>
+        <v>4.723596327829958E-07</v>
       </c>
       <c r="E16">
-        <v>1.348606782572255E-08</v>
+        <v>1.263452031171812E-08</v>
       </c>
       <c r="F16">
-        <v>1.555506066454029E-07</v>
+        <v>9.097912060082157E-07</v>
       </c>
       <c r="G16">
-        <v>6.662669215467857E-10</v>
+        <v>3.311262817526711E-10</v>
       </c>
       <c r="H16">
-        <v>9.999999999999999E-12</v>
+        <v>2.309727077532686E-08</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3616,25 +3616,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.13709506845421E-08</v>
+        <v>4.539392710545272E-08</v>
       </c>
       <c r="C17">
-        <v>5.114265071756367E-07</v>
+        <v>4.966101278819601E-07</v>
       </c>
       <c r="D17">
-        <v>-3.918528804567677E-09</v>
+        <v>2.347405406747513E-07</v>
       </c>
       <c r="E17">
-        <v>6.362145341507004E-09</v>
+        <v>6.278762881715931E-09</v>
       </c>
       <c r="F17">
-        <v>7.306998380070548E-08</v>
+        <v>4.521234770660755E-07</v>
       </c>
       <c r="G17">
-        <v>2.232478518230233E-10</v>
+        <v>1.645542019589787E-10</v>
       </c>
       <c r="H17">
-        <v>1.018149830821515E-08</v>
+        <v>1.147825820332576E-08</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3642,22 +3642,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3.13396917551865E-08</v>
+        <v>5.847194774541702E-07</v>
       </c>
       <c r="C18">
-        <v>3.377758347251923E-07</v>
+        <v>1.355340521969066E-07</v>
       </c>
       <c r="D18">
-        <v>1.67343531446175E-07</v>
+        <v>8.870324594691087E-07</v>
       </c>
       <c r="E18">
-        <v>4.27267111782373E-09</v>
+        <v>4.063940142285742E-09</v>
       </c>
       <c r="F18">
-        <v>6.259328175423409E-08</v>
+        <v>7.598710196282686E-07</v>
       </c>
       <c r="G18">
-        <v>2.149345308932182E-10</v>
+        <v>2.280127750157942E-10</v>
       </c>
       <c r="H18">
         <v>9.999999999999999E-12</v>
@@ -3668,25 +3668,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2.34211878529708E-08</v>
+        <v>2.387567436545956E-08</v>
       </c>
       <c r="C19">
-        <v>5.502395520413114E-07</v>
+        <v>5.491026687660333E-07</v>
       </c>
       <c r="D19">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="E19">
-        <v>6.846738773909572E-09</v>
+        <v>6.8343668741944E-09</v>
       </c>
       <c r="F19">
-        <v>7.897184450130585E-08</v>
+        <v>2.212597386230408E-07</v>
       </c>
       <c r="G19">
-        <v>2.403646005495108E-10</v>
+        <v>1.282051202859911E-10</v>
       </c>
       <c r="H19">
-        <v>1.095548148746275E-08</v>
+        <v>1.309396872794121E-08</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3694,25 +3694,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8.908084983629388E-09</v>
+        <v>1.798844944522842E-08</v>
       </c>
       <c r="C20">
-        <v>2.092650079776764E-07</v>
+        <v>1.967938609638374E-07</v>
       </c>
       <c r="D20">
-        <v>9.999999999999999E-12</v>
+        <v>9.302165769584009E-08</v>
       </c>
       <c r="E20">
-        <v>2.603928158662196E-09</v>
+        <v>2.488112747195129E-09</v>
       </c>
       <c r="F20">
-        <v>3.003479342402011E-08</v>
+        <v>1.791649418502731E-07</v>
       </c>
       <c r="G20">
-        <v>-1.904320469220657E-11</v>
+        <v>-4.630460731582553E-11</v>
       </c>
       <c r="H20">
-        <v>6.157860186697684E-09</v>
+        <v>6.558873873658349E-09</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3720,25 +3720,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2.247262030230916E-08</v>
+        <v>4.62871104179834E-08</v>
       </c>
       <c r="C21">
-        <v>5.279536638330989E-07</v>
+        <v>5.063815644449911E-07</v>
       </c>
       <c r="D21">
-        <v>9.999999999999999E-12</v>
+        <v>2.393593596902996E-07</v>
       </c>
       <c r="E21">
-        <v>6.569431260178067E-09</v>
+        <v>6.40230553569818E-09</v>
       </c>
       <c r="F21">
-        <v>7.577334869411023E-08</v>
+        <v>4.610195821327415E-07</v>
       </c>
       <c r="G21">
-        <v>2.306293197977342E-10</v>
+        <v>1.677920153972189E-10</v>
       </c>
       <c r="H21">
-        <v>1.051176122238642E-08</v>
+        <v>1.170410754789359E-08</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3746,22 +3746,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9.999999999999999E-12</v>
+        <v>7.243438261018808E-10</v>
       </c>
       <c r="C22">
-        <v>5.601421667781411E-07</v>
+        <v>5.579217286644349E-07</v>
       </c>
       <c r="D22">
-        <v>9.999999999999999E-12</v>
+        <v>1.945148895960494E-07</v>
       </c>
       <c r="E22">
-        <v>6.258586762081938E-09</v>
+        <v>5.736467431255942E-09</v>
       </c>
       <c r="F22">
-        <v>8.039307893540624E-08</v>
+        <v>4.336400670301681E-07</v>
       </c>
       <c r="G22">
-        <v>3.115609430715884E-10</v>
+        <v>2.092499892500533E-10</v>
       </c>
       <c r="H22">
         <v>9.999999999999999E-12</v>
@@ -3772,22 +3772,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3.746852053711985E-08</v>
+        <v>7.401330173168279E-08</v>
       </c>
       <c r="C23">
-        <v>8.802711724611074E-07</v>
+        <v>8.097064427263851E-07</v>
       </c>
       <c r="D23">
-        <v>9.999999999999999E-12</v>
+        <v>3.827367133329982E-07</v>
       </c>
       <c r="E23">
-        <v>1.095338452463481E-08</v>
+        <v>1.023731589881124E-08</v>
       </c>
       <c r="F23">
-        <v>1.263383548370122E-07</v>
+        <v>7.37172425076422E-07</v>
       </c>
       <c r="G23">
-        <v>5.411252606279544E-10</v>
+        <v>3.670002115342751E-10</v>
       </c>
       <c r="H23">
         <v>9.999999999999999E-12</v>
@@ -3843,25 +3843,25 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3.458467162087676E-08</v>
+        <v>3.779652284764535E-09</v>
       </c>
       <c r="C2">
-        <v>8.125172897651019E-07</v>
+        <v>8.536660126959854E-07</v>
       </c>
       <c r="D2">
-        <v>9.999999999999999E-12</v>
+        <v>-3.287845625791909E-07</v>
       </c>
       <c r="E2">
-        <v>1.011031017280523E-08</v>
+        <v>1.048818243942439E-08</v>
       </c>
       <c r="F2">
-        <v>1.166142411871673E-07</v>
+        <v>-9.027784436568779E-09</v>
       </c>
       <c r="G2">
-        <v>3.549368164016662E-10</v>
+        <v>1.312313318104679E-10</v>
       </c>
       <c r="H2">
-        <v>1.61775312006684E-08</v>
+        <v>2.086644988097416E-08</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3878,34 +3878,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.046233779763431E-09</v>
+        <v>9.26251183023994E-09</v>
       </c>
       <c r="C3">
-        <v>1.474857018804491E-07</v>
+        <v>1.34759860385734E-07</v>
       </c>
       <c r="D3">
-        <v>2.806437210945017E-09</v>
+        <v>6.418704451894811E-08</v>
       </c>
       <c r="E3">
-        <v>1.897864349001811E-09</v>
+        <v>1.746348291991219E-09</v>
       </c>
       <c r="F3">
-        <v>1.975915402967598E-08</v>
+        <v>1.178066517324581E-07</v>
       </c>
       <c r="G3">
-        <v>4.33908629554157E-09</v>
+        <v>3.944959518305642E-09</v>
       </c>
       <c r="H3">
-        <v>7.814329584325515E-09</v>
+        <v>7.62958728156851E-09</v>
       </c>
       <c r="I3">
-        <v>0.01022978158079135</v>
+        <v>0.007041057487422936</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8753812523658254</v>
+        <v>0.7974890022727031</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3913,25 +3913,25 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.365006447507099E-08</v>
+        <v>2.847254422035319E-08</v>
       </c>
       <c r="C4">
-        <v>3.266585984056054E-07</v>
+        <v>3.114899883754674E-07</v>
       </c>
       <c r="D4">
-        <v>-2.502844708188893E-09</v>
+        <v>1.47236884994438E-07</v>
       </c>
       <c r="E4">
-        <v>4.063632703722387E-09</v>
+        <v>3.938243840050885E-09</v>
       </c>
       <c r="F4">
-        <v>4.66712971638397E-08</v>
+        <v>2.835865172871835E-07</v>
       </c>
       <c r="G4">
-        <v>9.656166352890508E-09</v>
+        <v>9.391291251304989E-09</v>
       </c>
       <c r="H4">
-        <v>1.711813761545673E-08</v>
+        <v>1.772292585656551E-08</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.926129761037902</v>
+        <v>1.882167603457101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3948,34 +3948,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.733812269263391E-08</v>
+        <v>2.414692607070321E-08</v>
       </c>
       <c r="C5">
-        <v>8.182732267759097E-08</v>
+        <v>-1.204485108158843E-12</v>
       </c>
       <c r="D5">
-        <v>-3.089668418919037E-07</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="E5">
-        <v>6.059340578088348E-10</v>
+        <v>1.480400295525672E-09</v>
       </c>
       <c r="F5">
-        <v>4.876180964981632E-07</v>
+        <v>7.609232049116701E-12</v>
       </c>
       <c r="G5">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H5">
-        <v>4.255625797907926E-08</v>
+        <v>5.617488034160353E-09</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1765233081730303</v>
       </c>
       <c r="J5">
-        <v>3.654969601928087</v>
+        <v>0.1765251965967017</v>
       </c>
       <c r="K5">
-        <v>9.194856997008195</v>
+        <v>0.8050837973893484</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3983,34 +3983,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.151569989254441E-09</v>
+        <v>9.661191301328121E-09</v>
       </c>
       <c r="C6">
-        <v>1.550779843184807E-07</v>
+        <v>1.405602297506722E-07</v>
       </c>
       <c r="D6">
-        <v>2.950907242130573E-09</v>
+        <v>6.694980017621829E-08</v>
       </c>
       <c r="E6">
-        <v>1.995562783378675E-09</v>
+        <v>1.821515074625036E-09</v>
       </c>
       <c r="F6">
-        <v>2.077631756632494E-08</v>
+        <v>1.228773166302917E-07</v>
       </c>
       <c r="G6">
-        <v>1.732677675275109E-08</v>
+        <v>2.464687764565462E-08</v>
       </c>
       <c r="H6">
-        <v>1.832888902312404E-08</v>
+        <v>2.426948400199029E-08</v>
       </c>
       <c r="I6">
-        <v>0.01075639121176214</v>
+        <v>0.007344120536241089</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.497323806719763</v>
+        <v>4.985124113933132</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4018,34 +4018,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.229409761226719E-08</v>
+        <v>1.270877693381711E-07</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-6.141887066024273E-08</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.717898941359553E-07</v>
       </c>
       <c r="E7">
-        <v>3.226796764873689E-09</v>
+        <v>2.13857681794152E-09</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8.289400157408799E-07</v>
       </c>
       <c r="G7">
-        <v>-3.851057739621464E-09</v>
+        <v>6.631950383810081E-08</v>
       </c>
       <c r="H7">
-        <v>3.784298127033603E-09</v>
+        <v>6.294858654883297E-08</v>
       </c>
       <c r="I7">
-        <v>0.3849200353516906</v>
+        <v>0.3029042163467804</v>
       </c>
       <c r="J7">
-        <v>0.3849200353516907</v>
+        <v>0.8949798242429086</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.58767341995724</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4053,34 +4053,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.798130591802031E-09</v>
+        <v>3.387045437440804E-08</v>
       </c>
       <c r="C8">
-        <v>5.066963176116733E-08</v>
+        <v>3.292954169013537E-08</v>
       </c>
       <c r="D8">
-        <v>4.054317002525429E-08</v>
+        <v>1.626880846954429E-07</v>
       </c>
       <c r="E8">
-        <v>7.870800081484275E-10</v>
+        <v>1.702689656871477E-09</v>
       </c>
       <c r="F8">
-        <v>7.86599363316765E-09</v>
+        <v>1.325129752466788E-07</v>
       </c>
       <c r="G8">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H8">
-        <v>1.844942337631065E-09</v>
+        <v>4.594480598441553E-09</v>
       </c>
       <c r="I8">
-        <v>0.01757508697555788</v>
+        <v>0.1481989170329589</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.135381068281687</v>
       </c>
       <c r="K8">
-        <v>0.02042515064873408</v>
+        <v>0.2925268377844222</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4088,34 +4088,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.205777814716637E-08</v>
+        <v>2.26333798492021E-08</v>
       </c>
       <c r="C9">
-        <v>3.253498407656183E-08</v>
+        <v>1.889395796282103E-08</v>
       </c>
       <c r="D9">
-        <v>3.770694216009716E-09</v>
+        <v>7.369641615477767E-08</v>
       </c>
       <c r="E9">
-        <v>1.402722790141613E-09</v>
+        <v>1.450814956478184E-09</v>
       </c>
       <c r="F9">
-        <v>3.307736814357794E-09</v>
+        <v>1.054399076157254E-07</v>
       </c>
       <c r="G9">
-        <v>-1.168789066427995E-09</v>
+        <v>-6.987351983880976E-10</v>
       </c>
       <c r="H9">
-        <v>2.1150281206541E-09</v>
+        <v>3.310637592197707E-09</v>
       </c>
       <c r="I9">
-        <v>0.1219221310312957</v>
+        <v>0.1439123288689969</v>
       </c>
       <c r="J9">
-        <v>0.1114753318901495</v>
+        <v>0.1682769293449018</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1786693942429405</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4123,28 +4123,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.518796595224128E-09</v>
+        <v>1.150023648113678E-08</v>
       </c>
       <c r="C10">
-        <v>1.815464525190593E-07</v>
+        <v>1.67316413841576E-07</v>
       </c>
       <c r="D10">
-        <v>3.454563482211607E-09</v>
+        <v>7.969395392114028E-08</v>
       </c>
       <c r="E10">
-        <v>2.336162323063445E-09</v>
+        <v>2.168247523394321E-09</v>
       </c>
       <c r="F10">
-        <v>2.432238700516959E-08</v>
+        <v>1.462674897268225E-07</v>
       </c>
       <c r="G10">
-        <v>-7.732346869443947E-11</v>
+        <v>-8.102336535000628E-11</v>
       </c>
       <c r="H10">
-        <v>5.416036771736186E-09</v>
+        <v>5.610724654097819E-09</v>
       </c>
       <c r="I10">
-        <v>0.01259227526708245</v>
+        <v>0.008742102322426393</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4158,25 +4158,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-2.418223473525979E-08</v>
+        <v>5.136249556679422E-10</v>
       </c>
       <c r="C11">
-        <v>4.603139022420303E-07</v>
+        <v>3.956167124300781E-07</v>
       </c>
       <c r="D11">
-        <v>9.999999999999999E-12</v>
+        <v>1.379285609200079E-07</v>
       </c>
       <c r="E11">
-        <v>4.421128659599982E-09</v>
+        <v>4.067671627610439E-09</v>
       </c>
       <c r="F11">
-        <v>6.606561383393899E-08</v>
+        <v>3.074898303514841E-07</v>
       </c>
       <c r="G11">
-        <v>1.178613577119788E-08</v>
+        <v>1.010274124569958E-08</v>
       </c>
       <c r="H11">
-        <v>1.997785130896521E-08</v>
+        <v>1.87263542098502E-08</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.353792077394629</v>
+        <v>2.025095435422164</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4193,25 +4193,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.941347503067187E-08</v>
+        <v>4.118865424249875E-09</v>
       </c>
       <c r="C12">
-        <v>1.160908982925726E-06</v>
+        <v>1.257974311682938E-06</v>
       </c>
       <c r="D12">
-        <v>9.999999999999999E-12</v>
+        <v>-4.988107482896743E-07</v>
       </c>
       <c r="E12">
-        <v>1.444541377435162E-08</v>
+        <v>1.544957575927154E-08</v>
       </c>
       <c r="F12">
-        <v>1.66615809867091E-07</v>
+        <v>-2.866626463319671E-08</v>
       </c>
       <c r="G12">
-        <v>-1.056388228666052E-10</v>
+        <v>9.291588349369984E-11</v>
       </c>
       <c r="H12">
-        <v>3.416093662777586E-08</v>
+        <v>3.252908975890074E-08</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4228,34 +4228,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9.999999999999999E-12</v>
+        <v>3.003164091095091E-08</v>
       </c>
       <c r="C13">
-        <v>3.833544112430935E-07</v>
+        <v>3.285465255880212E-07</v>
       </c>
       <c r="D13">
-        <v>1.395114832745156E-07</v>
+        <v>1.552992674198435E-07</v>
       </c>
       <c r="E13">
-        <v>3.858626299567559E-09</v>
+        <v>4.153893797085682E-09</v>
       </c>
       <c r="F13">
-        <v>5.572652271827726E-07</v>
+        <v>2.991151190580272E-07</v>
       </c>
       <c r="G13">
-        <v>2.818957102058721E-06</v>
+        <v>6.844974189734028E-08</v>
       </c>
       <c r="H13">
-        <v>2.262200923572285E-06</v>
+        <v>6.524770400681258E-08</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.050362090890355</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>573.6729883092524</v>
+        <v>13.83587477366108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4263,25 +4263,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.901523086223232E-06</v>
+        <v>1.905337290468251E-06</v>
       </c>
       <c r="C14">
-        <v>6.483964497641207E-10</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="D14">
-        <v>2.216365434931923E-06</v>
+        <v>2.217613503059282E-06</v>
       </c>
       <c r="E14">
-        <v>7.817138362996101E-09</v>
+        <v>7.824637681592051E-09</v>
       </c>
       <c r="F14">
-        <v>1.870419754270689E-07</v>
+        <v>1.467881945424348E-06</v>
       </c>
       <c r="G14">
-        <v>-1.709749923749835E-10</v>
+        <v>-2.000640259936849E-10</v>
       </c>
       <c r="H14">
-        <v>2.068248626370713E-08</v>
+        <v>2.266903825810754E-08</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4298,22 +4298,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5.908877692810855E-08</v>
+        <v>1.19916176245669E-07</v>
       </c>
       <c r="C15">
-        <v>1.388222995846129E-06</v>
+        <v>1.31188446159627E-06</v>
       </c>
       <c r="D15">
-        <v>9.999999999999999E-12</v>
+        <v>6.201091168465082E-07</v>
       </c>
       <c r="E15">
-        <v>1.727392494565235E-08</v>
+        <v>1.658647498330605E-08</v>
       </c>
       <c r="F15">
-        <v>1.992401733409593E-07</v>
+        <v>1.194365017917728E-06</v>
       </c>
       <c r="G15">
-        <v>2.353093941636833E-08</v>
+        <v>5.946455997725498E-10</v>
       </c>
       <c r="H15">
         <v>9.999999999999999E-12</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.545972660684946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4333,25 +4333,25 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4.613190352010187E-08</v>
+        <v>9.134450605112749E-08</v>
       </c>
       <c r="C16">
-        <v>1.083810904058489E-06</v>
+        <v>9.993100338286405E-07</v>
       </c>
       <c r="D16">
-        <v>9.999999999999999E-12</v>
+        <v>4.723596327829958E-07</v>
       </c>
       <c r="E16">
-        <v>1.348606782572255E-08</v>
+        <v>1.263452031171812E-08</v>
       </c>
       <c r="F16">
-        <v>1.555506066454029E-07</v>
+        <v>9.097912060082157E-07</v>
       </c>
       <c r="G16">
-        <v>1.239664769281417E-07</v>
+        <v>1.737482805554902E-07</v>
       </c>
       <c r="H16">
-        <v>1.296471755059944E-07</v>
+        <v>1.709548428427776E-07</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.94928663148256</v>
+        <v>35.09015770498092</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4368,25 +4368,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.137095068454191E-08</v>
+        <v>4.539392710545272E-08</v>
       </c>
       <c r="C17">
-        <v>5.114265071756368E-07</v>
+        <v>4.966101278819601E-07</v>
       </c>
       <c r="D17">
-        <v>-3.918528804567678E-09</v>
+        <v>2.347405406747513E-07</v>
       </c>
       <c r="E17">
-        <v>6.362145341507005E-09</v>
+        <v>6.278762881715931E-09</v>
       </c>
       <c r="F17">
-        <v>7.30699838007055E-08</v>
+        <v>4.521234770660755E-07</v>
       </c>
       <c r="G17">
-        <v>2.232478518230233E-10</v>
+        <v>1.645542019589787E-10</v>
       </c>
       <c r="H17">
-        <v>1.018149830821515E-08</v>
+        <v>1.147825820332576E-08</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4403,25 +4403,25 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5.768990175872813E-07</v>
+        <v>5.847194774541702E-07</v>
       </c>
       <c r="C18">
-        <v>1.383921684211427E-07</v>
+        <v>1.355340521969066E-07</v>
       </c>
       <c r="D18">
-        <v>8.834389409084866E-07</v>
+        <v>8.870324594691087E-07</v>
       </c>
       <c r="E18">
-        <v>4.067060359218847E-09</v>
+        <v>4.063940142285742E-09</v>
       </c>
       <c r="F18">
-        <v>9.43796738147103E-08</v>
+        <v>7.598710196282686E-07</v>
       </c>
       <c r="G18">
-        <v>4.900481690549578E-07</v>
+        <v>4.091860955784333E-08</v>
       </c>
       <c r="H18">
-        <v>4.002123851343099E-07</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>99.17098831843259</v>
+        <v>8.19667715370508</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4444,19 +4444,19 @@
         <v>6.088018793999158E-07</v>
       </c>
       <c r="D19">
-        <v>-1.424303739315196E-07</v>
+        <v>-2.362735940969742E-07</v>
       </c>
       <c r="E19">
-        <v>7.173919596484643E-09</v>
+        <v>7.404446120851138E-09</v>
       </c>
       <c r="F19">
-        <v>3.344185025030127E-08</v>
+        <v>-8.367638159343781E-09</v>
       </c>
       <c r="G19">
-        <v>1.294705561475255E-08</v>
+        <v>2.698695602097054E-09</v>
       </c>
       <c r="H19">
-        <v>2.588575089504892E-08</v>
+        <v>1.768878932736019E-08</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.573621750501539</v>
+        <v>0.5281745651534456</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4473,28 +4473,28 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>3.015647326437884E-09</v>
+        <v>1.391121394488825E-08</v>
       </c>
       <c r="C20">
-        <v>2.173577950682702E-07</v>
+        <v>2.023936145364855E-07</v>
       </c>
       <c r="D20">
-        <v>4.136000957319991E-09</v>
+        <v>9.640146486809116E-08</v>
       </c>
       <c r="E20">
-        <v>2.796987131485424E-09</v>
+        <v>2.62281173373149E-09</v>
       </c>
       <c r="F20">
-        <v>2.912015264900757E-08</v>
+        <v>1.769318697149469E-07</v>
       </c>
       <c r="G20">
-        <v>-9.257607862477681E-11</v>
+        <v>-9.800958195664541E-11</v>
       </c>
       <c r="H20">
-        <v>6.484388950479006E-09</v>
+        <v>6.786990091641883E-09</v>
       </c>
       <c r="I20">
-        <v>0.01507619206526994</v>
+        <v>0.01057484825941213</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4508,25 +4508,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2.207656175822668E-08</v>
+        <v>4.628711041798333E-08</v>
       </c>
       <c r="C21">
-        <v>5.283124291996869E-07</v>
+        <v>5.063815644449912E-07</v>
       </c>
       <c r="D21">
-        <v>-4.047908042668451E-09</v>
+        <v>2.393593596902996E-07</v>
       </c>
       <c r="E21">
-        <v>6.572206198023124E-09</v>
+        <v>6.40230553569818E-09</v>
       </c>
       <c r="F21">
-        <v>7.548255732093874E-08</v>
+        <v>4.610195821327415E-07</v>
       </c>
       <c r="G21">
-        <v>2.306188929502006E-10</v>
+        <v>1.677920153972189E-10</v>
       </c>
       <c r="H21">
-        <v>1.051766388451657E-08</v>
+        <v>1.170410754789359E-08</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4543,22 +4543,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9.999999999999999E-12</v>
+        <v>7.243438261018808E-10</v>
       </c>
       <c r="C22">
-        <v>5.601421667781411E-07</v>
+        <v>5.579217286644349E-07</v>
       </c>
       <c r="D22">
-        <v>2.038422318794635E-07</v>
+        <v>1.945148895960494E-07</v>
       </c>
       <c r="E22">
-        <v>5.637802705392967E-09</v>
+        <v>5.736467431255942E-09</v>
       </c>
       <c r="F22">
-        <v>9.758618904524143E-08</v>
+        <v>4.336400670301681E-07</v>
       </c>
       <c r="G22">
-        <v>1.277398531420102E-06</v>
+        <v>4.10914099729547E-08</v>
       </c>
       <c r="H22">
         <v>9.999999999999999E-12</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>258.1874678598431</v>
+        <v>8.235265472291319</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4578,22 +4578,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3.683496183811481E-08</v>
+        <v>7.401330173168277E-08</v>
       </c>
       <c r="C23">
-        <v>8.814945180909076E-07</v>
+        <v>8.097064427263851E-07</v>
       </c>
       <c r="D23">
-        <v>-6.753974641016171E-09</v>
+        <v>3.827367133329982E-07</v>
       </c>
       <c r="E23">
-        <v>1.096579110223951E-08</v>
+        <v>1.023731589881124E-08</v>
       </c>
       <c r="F23">
-        <v>1.259433941213239E-07</v>
+        <v>7.37172425076422E-07</v>
       </c>
       <c r="G23">
-        <v>1.486399595093521E-08</v>
+        <v>7.237068424636002E-08</v>
       </c>
       <c r="H23">
         <v>9.999999999999999E-12</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.871095845132807</v>
+        <v>14.50435723665598</v>
       </c>
     </row>
   </sheetData>
